--- a/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
+++ b/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>waitfor</t>
   </si>
@@ -40,10 +40,43 @@
     <t>URL</t>
   </si>
   <si>
-    <t>GetINTouch</t>
-  </si>
-  <si>
-    <t>https://www.worldpay.com/us/get-in-touch</t>
+    <t>https://www.worldpay.com/us/get-in-touch/global-contact</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>SLk</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>PRODUCTS AND SERVICES</t>
+  </si>
+  <si>
+    <t>Phnnumber</t>
   </si>
 </sst>
 </file>
@@ -412,20 +445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,20 +468,62 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
+++ b/SelNewFramework/TestSuite&Testcases/TestSuite1Data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="21720" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet name="launchingWorldApp" sheetId="2" r:id="rId1"/>
-    <sheet name="WorldpayForm" sheetId="3" r:id="rId2"/>
+    <sheet name="WorldPayForm" sheetId="2" r:id="rId1"/>
+    <sheet name="WorldpayLaunch" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>waitfor</t>
   </si>
   <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>Hongkong CURA Healthcare Center</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>admin1@gmail.com</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>SLk</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -77,6 +65,9 @@
   </si>
   <si>
     <t>Phnnumber</t>
+  </si>
+  <si>
+    <t>SLK</t>
   </si>
 </sst>
 </file>
@@ -135,11 +126,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,82 +435,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="H2">
+        <v>88888888</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -529,44 +513,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>